--- a/medicine/Sexualité et sexologie/Les_Anges_exterminateurs/Les_Anges_exterminateurs.xlsx
+++ b/medicine/Sexualité et sexologie/Les_Anges_exterminateurs/Les_Anges_exterminateurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anges exterminateurs est un film français réalisé par Jean-Claude Brisseau en 2006.
 </t>
@@ -511,9 +523,11 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le réalisateur Jean-Claude Brisseau adapte de façon romancée le livre du même nom où il décrit ses méthodes particulières de travail, comment il sélectionne ses actrices et sa version des faits qui lui vaudront d'être condamné[1] en justice pour harcèlement et agression sexuelle sur des actrices à qui il avait fait passer des auditions.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le réalisateur Jean-Claude Brisseau adapte de façon romancée le livre du même nom où il décrit ses méthodes particulières de travail, comment il sélectionne ses actrices et sa version des faits qui lui vaudront d'être condamné en justice pour harcèlement et agression sexuelle sur des actrices à qui il avait fait passer des auditions.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François, cinéaste, décide de tourner un film sur le plaisir féminin. Il commence un casting et malgré les nombreux refus des candidates il sélectionne deux jeunes comédiennes, Julie et Charlotte, à qui il demande de se masturber devant lui dans un restaurant, sous le regard de Stéphanie la serveuse, puis dans un hôtel. Le lendemain, Stéphanie viendra voir François à son bureau et demandera à rejoindre le casting. Elle accepte de se masturber dans une chambre devant lui quand Julie et Charlotte arrivent[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François, cinéaste, décide de tourner un film sur le plaisir féminin. Il commence un casting et malgré les nombreux refus des candidates il sélectionne deux jeunes comédiennes, Julie et Charlotte, à qui il demande de se masturber devant lui dans un restaurant, sous le regard de Stéphanie la serveuse, puis dans un hôtel. Le lendemain, Stéphanie viendra voir François à son bureau et demandera à rejoindre le casting. Elle accepte de se masturber dans une chambre devant lui quand Julie et Charlotte arrivent.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre : Les Anges exterminateurs
 Réalisation : Jean-Claude Brisseau
@@ -583,7 +601,7 @@
 Durée : 100 minutes
 Genre : drame, érotique
 Classification :
-France : interdit aux moins de 16 ans[3]</t>
+France : interdit aux moins de 16 ans</t>
         </is>
       </c>
     </row>
@@ -611,18 +629,20 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Frédéric van den Driessche : François
 Maroussia Dubreuil : Charlotte
-Lise Bellynck : Julie[4]
+Lise Bellynck : Julie
 Marie Allan : Stéphanie
 Raphaële Godin : Apparition 1 et Rebecca
 Margaret Zenou : Apparition 2
 Sophie Bonnet : Nathalie
 Jeanne Cellard : la grand-mère
-Virginie Legeay : Virginie[5]
+Virginie Legeay : Virginie
 Estelle Galarme : Olivia
 Marine Danaux : Agnès
 Apolline Louis : Céline
